--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1451308.521251395</v>
+        <v>1523808.109624132</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.31732496</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6274908.622985006</v>
+        <v>6630532.189779862</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +664,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>416.728255601652</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>45.82863069561422</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2869346800484</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>36.86633594575504</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +898,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>130.4891172319654</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>230.8037530760365</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>35.0560030479866</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>105.4707181925014</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,16 +1144,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>113.4419073893311</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>113.6180270793163</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>184.2690991742398</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1354,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.78580588144442</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1375,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>17.75131650481221</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>19.80087630034361</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>360.600622362114</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1765,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>56.95997704284514</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>84.71997427496031</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>19.80087630034507</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2375,7 +2377,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.06571353858833</v>
+        <v>113.7218216744501</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2950,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>126.8355823247564</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>216.3562841193488</v>
       </c>
     </row>
     <row r="32">
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3427,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>199.4201398804786</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>133.9986524434723</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3743,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>149.030179824517</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>41.00451938202553</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>386.8971262206524</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633437</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.6990987647616</v>
+        <v>6.133574646794441</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.493304866897</v>
+        <v>542.9615250231906</v>
       </c>
       <c r="C2" t="n">
-        <v>1319.391236090724</v>
+        <v>508.8594562470179</v>
       </c>
       <c r="D2" t="n">
-        <v>890.8095618279922</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
         <v>34.36045797446834</v>
@@ -4331,7 +4333,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.044017468586</v>
+        <v>569.4664111276369</v>
       </c>
       <c r="Y2" t="n">
-        <v>1375.7524713114</v>
+        <v>565.2206914676943</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1580.010651986078</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.3151106838835</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C4" t="n">
-        <v>505.3151106838835</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>339.4371178854062</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.4625259617433</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1653.213838276079</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4519,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1250.152940450071</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1250.152940450071</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>978.1265360363627</v>
+        <v>998.6183892485328</v>
       </c>
       <c r="X4" t="n">
-        <v>732.7347813697752</v>
+        <v>961.3796660710025</v>
       </c>
       <c r="Y4" t="n">
-        <v>505.3151106838835</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>1369.665802834839</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>931.523330018262</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>495.6135451927065</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>363.8063560695091</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191209</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="M5" t="n">
-        <v>1528.02936532736</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="O5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2178.74515297471</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1816.128202908537</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>1815.313152359974</v>
       </c>
       <c r="X5" t="n">
-        <v>975.540997558079</v>
+        <v>1396.170688939285</v>
       </c>
       <c r="Y5" t="n">
-        <v>971.2952778981364</v>
+        <v>1391.924969279342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
-        <v>358.5019935678207</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>778.554892512724</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>548.8324253914312</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>548.8324253914312</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1172.933209436211</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.2559470001092</v>
+        <v>735.337148692236</v>
       </c>
       <c r="C7" t="n">
-        <v>209.2559470001092</v>
+        <v>562.775437175461</v>
       </c>
       <c r="D7" t="n">
-        <v>209.2559470001092</v>
+        <v>396.8974443769837</v>
       </c>
       <c r="E7" t="n">
-        <v>209.2559470001092</v>
+        <v>227.1394406277209</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2362.377960771853</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2116.498514350308</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1838.065513603413</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1551.110005473844</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1279.083601060135</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1033.691846393548</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.2559470001092</v>
+        <v>927.1557674112232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1671.959615828829</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>1233.817143012253</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>1201.947762227101</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1114.499252887282</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>709.6437982983157</v>
+        <v>1713.566561313561</v>
       </c>
       <c r="X8" t="n">
-        <v>290.5013348776264</v>
+        <v>1698.464501933276</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1694.218782273333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>778.554892512724</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>778.554892512724</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M9" t="n">
-        <v>778.554892512724</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="N9" t="n">
-        <v>778.554892512724</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>778.554892512724</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.603617826933</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>122.603617826933</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>122.603617826933</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>122.603617826933</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>122.603617826933</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.603617826933</v>
+        <v>1178.687606037187</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1222.738694693851</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>784.5962218772743</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>766.6655991451407</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>766.6655991451407</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.595264158347</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M11" t="n">
-        <v>1453.595264158347</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>1453.595264158347</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.322306888761</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2476.466852299794</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.324388879105</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1649.038265178759</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J12" t="n">
-        <v>400.6959381778332</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>400.6959381778332</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6336502885521</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C13" t="n">
-        <v>754.071938771777</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D13" t="n">
-        <v>588.1939459732997</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E13" t="n">
-        <v>418.435942224037</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7288881857932</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G13" t="n">
-        <v>76.13761321162085</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162085</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.678607650191</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.245606903296</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.290098773727</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.263694360018</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.871939693431</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.452269007539</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1306.390568510014</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>868.2480956934373</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>868.2480956934373</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>868.2480956934373</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>440.3806661026451</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>511.3923006645387</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M14" t="n">
-        <v>511.3923006645387</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.714971542187</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3586.813433454081</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3327.591130771098</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2964.974180704924</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2560.118726115958</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2140.976262695268</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1732.690138994922</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1018.340576705429</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.638436058354</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.638436058354</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.6314506292333</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C16" t="n">
-        <v>728.0961202829251</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D16" t="n">
-        <v>728.0961202829251</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E16" t="n">
-        <v>558.3381165336624</v>
+        <v>581.9899703707711</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954186</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212463</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162085</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y16" t="n">
-        <v>977.4500693482205</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,31 +5515,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>388.1086717343214</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>388.1086717343214</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>414.500552094942</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,46 +5758,46 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5828,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>3409.84928927389</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>3237.287577757115</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>3071.409584958637</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>2901.651581209375</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244352</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>4932.382823542349</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>4408.07037637391</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>4121.114868244341</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>3849.088463830632</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>3829.087578678769</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>3601.667907992877</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.781058858859</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>754.2193473420839</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6178,19 +6180,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.599677577846</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>525.9458847132731</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1601.005850966132</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2758.053686176683</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>970.9960463903949</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,25 +6943,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.441008084184</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>842.8792965674086</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2517.485965445823</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2239.052964698928</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1952.097456569358</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.07105215565</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.679297489062</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.259626803171</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,46 +7180,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7260,13 +7262,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1526.457795636974</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1088.315322820398</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1088.315322820398</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>654.5405779786929</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>226.6731483879007</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162083</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162083</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035994</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.22780986939</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581041</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581041</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581041</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3547.658357898058</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3185.041407831884</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2780.185953242918</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.043489822229</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1952.757366121882</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>76.17381292742472</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>400.7321378936371</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.633650288552</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C43" t="n">
-        <v>754.0719387717769</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D43" t="n">
-        <v>588.1939459732996</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E43" t="n">
-        <v>418.4359422240369</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7288881857932</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G43" t="n">
-        <v>76.13761321162083</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162083</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2674.558054071736</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2428.678607650191</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2150.245606903296</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.290098773727</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.263694360018</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.871939693431</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.452269007539</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2455.022736403852</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162083</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>511.3923006645387</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1453.595264158346</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>1453.595264158346</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035994</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.22780986939</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581041</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764878</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637917</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.939256954934</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2881.32230688876</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2881.32230688876</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2881.32230688876</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2881.32230688876</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1066.535824598177</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C46" t="n">
-        <v>893.9741130814024</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D46" t="n">
-        <v>728.0961202829251</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E46" t="n">
-        <v>558.3381165336624</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954186</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212463</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162083</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162083</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.917776692876</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2168.484775945981</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1881.529267816412</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1609.502863402703</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1364.111108736116</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1258.354443317165</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>44.41372909529082</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8234,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>149.2707481568527</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.0749767191123</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452607</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>817.4976473511597</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511598</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9009,22 +9011,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>182.1190498514397</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9176,10 +9178,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>289.0667057209139</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>105.9132979316059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324429</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505214</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10908,16 +10910,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113906</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949887368</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452602</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>817.4976473511588</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>413.7993704724877</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>36.78323070085474</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>113.8761173587622</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>90.22000922290103</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>223.1369608195766</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.0797604404445</v>
+        <v>111.4236523045827</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>37.38363054573608</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.789189859683972</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>44.0005120768507</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>141.6500182959534</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>248.3536732384517</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>201.9333177378961</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>46.86392186775851</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.4463752142712</v>
+        <v>219.0118993322384</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>538861.297066086</v>
+        <v>553657.3398932406</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>538861.297066086</v>
+        <v>556321.3999468203</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>470097.6209383347</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>470097.6209383347</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>581415.3775850212</v>
+        <v>581415.3775850211</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>581415.3775850211</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>470097.6209383345</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470097.6209383345</v>
+        <v>581415.3775850212</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095868</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>351438.0042228205</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="I2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="J2" t="n">
         <v>434657.5069133157</v>
       </c>
-      <c r="I2" t="n">
-        <v>434657.5069133157</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="L2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="K2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="L2" t="n">
-        <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="N2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="O2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="P2" t="n">
         <v>434657.5069133157</v>
-      </c>
-      <c r="O2" t="n">
-        <v>351438.0042228205</v>
-      </c>
-      <c r="P2" t="n">
-        <v>351438.0042228205</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221039</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636919</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574194</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917065</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>76713.02278410408</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>76713.02278410408</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="G4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="H4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="I4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="L4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="M4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="O4" t="n">
-        <v>76713.02278410406</v>
-      </c>
       <c r="P4" t="n">
-        <v>76713.02278410405</v>
+        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="O5" t="n">
-        <v>57864.58604083183</v>
-      </c>
       <c r="P5" t="n">
-        <v>57864.58604083183</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>28612.33067543671</v>
       </c>
       <c r="C6" t="n">
-        <v>170803.6313351467</v>
+        <v>124058.9244148615</v>
       </c>
       <c r="D6" t="n">
-        <v>170803.6313351465</v>
+        <v>182691.8835314036</v>
       </c>
       <c r="E6" t="n">
-        <v>59383.10047578069</v>
+        <v>79705.7144377205</v>
       </c>
       <c r="F6" t="n">
-        <v>216860.3953978846</v>
+        <v>262060.8236587702</v>
       </c>
       <c r="G6" t="n">
-        <v>172561.015052401</v>
+        <v>262060.8236587702</v>
       </c>
       <c r="H6" t="n">
-        <v>262060.8236587704</v>
+        <v>262060.8236587702</v>
       </c>
       <c r="I6" t="n">
-        <v>262060.8236587703</v>
+        <v>262060.8236587701</v>
       </c>
       <c r="J6" t="n">
         <v>151046.35831378</v>
       </c>
       <c r="K6" t="n">
+        <v>209014.9690199975</v>
+      </c>
+      <c r="L6" t="n">
+        <v>252668.5219321481</v>
+      </c>
+      <c r="M6" t="n">
+        <v>109860.6527207826</v>
+      </c>
+      <c r="N6" t="n">
         <v>262060.8236587702</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>262060.8236587702</v>
+      </c>
+      <c r="P6" t="n">
         <v>262060.8236587703</v>
-      </c>
-      <c r="M6" t="n">
-        <v>130624.5765013507</v>
-      </c>
-      <c r="N6" t="n">
-        <v>262060.8236587703</v>
-      </c>
-      <c r="O6" t="n">
-        <v>216860.3953978846</v>
-      </c>
-      <c r="P6" t="n">
-        <v>216860.3953978846</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452604</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452604</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27384,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>14.82243137564791</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>358.3746317677289</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>255.3617360593773</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.0715011741666</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>298.9478801613224</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>184.1472857104459</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>139.8839804498747</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>119.6747557865314</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>287.3649926537458</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.5852353840268</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>5.631333357557423</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>139.3596680975884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34699,10 +34701,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>44.41372909529082</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>149.2707481568527</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.0749767191123</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>951.7201651452607</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>817.4976473511597</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949884526</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N14" t="n">
-        <v>817.4976473511598</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>182.1190498514397</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35896,10 +35898,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
-        <v>289.0667057209139</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,16 +36126,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>531.8762684426488</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>-5.34688178647151e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>105.9132979316059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>500.2430848324429</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>-5.34688178647151e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>60.59188538505214</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37628,16 +37630,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>926.4397398113906</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03656536949887368</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452602</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>817.4976473511588</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1523808.109624132</v>
+        <v>1523282.9272551</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>416.728255601652</v>
+        <v>394.5063167537995</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,19 +712,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -819,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>36.86633594575504</v>
+        <v>36.57165277603188</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>150.4517733397717</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,16 +904,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>130.4891172319654</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,19 +949,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964761</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>105.4707181925014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1141,7 +1141,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1150,7 +1150,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1189,19 +1189,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>113.4419073893311</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>218.6979830424786</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2690991742398</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>152.5004364948338</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1429,7 +1429,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1539,10 +1539,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>19.80087630034361</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>130.6556207749486</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1776,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>84.71997427496031</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.436997393288</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>19.80087630034507</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,7 +2320,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884117</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2377,7 +2377,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.7218216744501</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="29">
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>166.1507936381772</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.3562841193488</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>54.66258501924847</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3246,7 +3246,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>133.9986524434723</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>41.00451938202553</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479132298</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633437</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.133574646794441</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>542.9615250231906</v>
+        <v>1208.492610164787</v>
       </c>
       <c r="C2" t="n">
-        <v>508.8594562470179</v>
+        <v>1174.390541388614</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4333,7 +4333,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
         <v>687.9235674375537</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>988.6088745483262</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>569.4664111276369</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>565.2206914676943</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>682.0221647221273</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>516.14417192365</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4488,22 +4488,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.213838276079</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W4" t="n">
-        <v>998.6183892485328</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>1101.260454127006</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>873.8407834411144</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1369.665802834839</v>
+        <v>1786.543608036966</v>
       </c>
       <c r="C5" t="n">
-        <v>931.523330018262</v>
+        <v>1348.40113522039</v>
       </c>
       <c r="D5" t="n">
-        <v>495.6135451927065</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>363.8063560695091</v>
+        <v>478.7166055531294</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191209</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>557.7649106726459</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726459</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
         <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>1805.966478762205</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>1805.966478762205</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
         <v>2352.465264720799</v>
@@ -4597,22 +4597,22 @@
         <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2217.900228530732</v>
       </c>
       <c r="U5" t="n">
-        <v>2178.74515297471</v>
+        <v>1958.677925847748</v>
       </c>
       <c r="V5" t="n">
-        <v>1816.128202908537</v>
+        <v>1958.677925847748</v>
       </c>
       <c r="W5" t="n">
-        <v>1815.313152359974</v>
+        <v>1957.862875299186</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.170688939285</v>
+        <v>1942.760815918901</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.924969279342</v>
+        <v>1938.515096258958</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993473</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>401.054384716147</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>401.054384716147</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>548.8324253914312</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>548.8324253914312</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1172.933209436211</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>735.337148692236</v>
+        <v>593.0357356940403</v>
       </c>
       <c r="C7" t="n">
-        <v>562.775437175461</v>
+        <v>420.4740241772653</v>
       </c>
       <c r="D7" t="n">
-        <v>396.8974443769837</v>
+        <v>254.596031378788</v>
       </c>
       <c r="E7" t="n">
-        <v>227.1394406277209</v>
+        <v>84.83802762952521</v>
       </c>
       <c r="F7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="G7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
         <v>137.012071754167</v>
@@ -4743,34 +4743,34 @@
         <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
         <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473856</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>2362.377960771853</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>2116.498514350308</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1838.065513603413</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1551.110005473844</v>
+        <v>1529.692184179215</v>
       </c>
       <c r="W7" t="n">
-        <v>1279.083601060135</v>
+        <v>1257.665779765507</v>
       </c>
       <c r="X7" t="n">
-        <v>1033.691846393548</v>
+        <v>1012.274025098919</v>
       </c>
       <c r="Y7" t="n">
-        <v>927.1557674112232</v>
+        <v>784.8543544130275</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.959615828829</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1233.817143012253</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.947762227101</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>141.0418768474983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>141.0418768474983</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W8" t="n">
-        <v>1713.566561313561</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.464501933276</v>
+        <v>2434.076489375619</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.218782273333</v>
+        <v>2213.169435797357</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2494.602160192524</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1406.107276723079</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1178.687606037187</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
         <v>102.6776296436396</v>
@@ -5041,52 +5041,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1035.728611060351</v>
+        <v>839.0206718702449</v>
       </c>
       <c r="C13" t="n">
-        <v>863.1668995435758</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D13" t="n">
-        <v>697.2889067450985</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E13" t="n">
-        <v>527.5309029958357</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F13" t="n">
-        <v>350.823848957592</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2586.945075653429</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2341.065629231884</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2062.632628484989</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1775.67712035542</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1503.650715941711</v>
       </c>
       <c r="X13" t="n">
-        <v>1454.96690046523</v>
+        <v>1258.258961275124</v>
       </c>
       <c r="Y13" t="n">
-        <v>1227.547229779338</v>
+        <v>1030.839290589232</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5278,34 +5278,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
         <v>4809.322912595856</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N15" t="n">
-        <v>751.6989919312866</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1362.151784991544</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.187678435286</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C16" t="n">
-        <v>917.6259669185112</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D16" t="n">
-        <v>751.7479741200339</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E16" t="n">
-        <v>581.9899703707711</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354687</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066043</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745655</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955478</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O16" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q16" t="n">
         <v>2718.920450173579</v>
@@ -5463,25 +5463,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2313.799635050031</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>2026.844126920461</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1754.817722506753</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
-        <v>1509.425967840165</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y16" t="n">
-        <v>1282.006297154273</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5527,22 +5527,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3572.656769371182</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
         <v>4809.322912595856</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3409.84928927389</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>3237.287577757115</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>3071.409584958637</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>2901.651581209375</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>2724.944527171131</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244352</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.382823542349</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.07037637391</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244341</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830632</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>3829.087578678769</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3601.667907992877</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5980,7 +5980,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
         <v>102.6776296436396</v>
@@ -5998,43 +5998,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1660.646436797299</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6469,19 +6469,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>745.3413777868475</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>575.5833740375847</v>
       </c>
       <c r="F31" t="n">
         <v>407.7542895545774</v>
@@ -6666,7 +6666,7 @@
         <v>1503.019371506979</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2093.658967439508</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>782.9943603411569</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2642.287896536276</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2396.408450114731</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6946,19 +6946,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,10 +7180,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7423,25 +7423,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7450,7 +7450,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>843.1660143917135</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>677.2880215932362</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>507.5300178439735</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>330.8229638057297</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7636,64 +7636,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436403</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8081,7 +8081,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8145,16 +8145,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>72.80589558611206</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,19 +8297,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
-        <v>149.2707481568527</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191123</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,13 +8534,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>833.0630236930783</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426488</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>105.9132979316059</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,10 +10117,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1005.515419242839</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,10 +10129,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>500.2430848324429</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>687.6096162327044</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>144.134485924087</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>26.99333424003467</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>90.22000922290103</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>223.1369608195766</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.4236523045827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>8.789189859684171</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.789189859683972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>102.9863699957348</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>141.6500182959534</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>201.9333177378961</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.0118993322384</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581415.3775850212</v>
+        <v>581415.3775850211</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581415.3775850212</v>
+        <v>581415.3775850211</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>581415.3775850212</v>
+        <v>581415.3775850211</v>
       </c>
     </row>
     <row r="11">
@@ -26316,10 +26316,10 @@
         <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
         <v>434657.5069133156</v>
@@ -26331,22 +26331,22 @@
         <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="I2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="I2" t="n">
-        <v>434657.5069133155</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="K2" t="n">
-        <v>434657.5069133155</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="L2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
         <v>434657.5069133156</v>
@@ -26355,7 +26355,7 @@
         <v>434657.5069133156</v>
       </c>
       <c r="P2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501635</v>
+        <v>66587.7678950163</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998259</v>
+        <v>11527.59554998264</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877266</v>
+        <v>53045.85463877262</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662217</v>
+        <v>9392.30172662221</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>179718.6327917065</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.5352664431</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="I4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94878.44464875288</v>
+      </c>
+      <c r="K4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="J4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94878.44464875288</v>
-      </c>
       <c r="L4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="M4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="N4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875286</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94878.44464875289</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>124058.9244148615</v>
       </c>
       <c r="D6" t="n">
-        <v>182691.8835314036</v>
+        <v>182691.8835314037</v>
       </c>
       <c r="E6" t="n">
-        <v>79705.7144377205</v>
+        <v>79682.49009833779</v>
       </c>
       <c r="F6" t="n">
-        <v>262060.8236587702</v>
+        <v>262037.5993193876</v>
       </c>
       <c r="G6" t="n">
-        <v>262060.8236587702</v>
+        <v>262037.5993193876</v>
       </c>
       <c r="H6" t="n">
-        <v>262060.8236587702</v>
+        <v>262037.5993193877</v>
       </c>
       <c r="I6" t="n">
-        <v>262060.8236587701</v>
+        <v>262037.5993193876</v>
       </c>
       <c r="J6" t="n">
-        <v>151046.35831378</v>
+        <v>151023.1339743975</v>
       </c>
       <c r="K6" t="n">
-        <v>209014.9690199975</v>
+        <v>208991.744680615</v>
       </c>
       <c r="L6" t="n">
-        <v>252668.5219321481</v>
+        <v>252645.2975927654</v>
       </c>
       <c r="M6" t="n">
-        <v>109860.6527207826</v>
+        <v>109837.4283814</v>
       </c>
       <c r="N6" t="n">
-        <v>262060.8236587702</v>
+        <v>262037.5993193877</v>
       </c>
       <c r="O6" t="n">
-        <v>262060.8236587702</v>
+        <v>262037.5993193876</v>
       </c>
       <c r="P6" t="n">
-        <v>262060.8236587703</v>
+        <v>262037.5993193876</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939299</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939299</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483598</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939283</v>
+        <v>37.11037423939299</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>14.82243137564791</v>
+        <v>37.04437022350044</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>206.0715011741666</v>
+        <v>206.3661843438898</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>271.5848014402869</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>298.9478801613224</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682137</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.6747557865314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>287.3649926537458</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>185.5052794208645</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.631333357557423</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>90.92021546249543</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-7.557479546386309e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34801,7 +34801,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,16 +34865,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>72.80589558611206</v>
+        <v>630.404832368464</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684642</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,25 +35011,25 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741867</v>
       </c>
       <c r="M6" t="n">
-        <v>149.2707481568527</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35038,7 +35038,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191123</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821543</v>
+        <v>22.9496038847592</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949884526</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>655.9981329904112</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.4542274390799</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,13 +35895,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>833.0630236930783</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>531.8762684426488</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>105.9132979316059</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,10 +36837,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1005.515419242839</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36849,10 +36849,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>500.2430848324429</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>687.6096162327044</v>
@@ -37159,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
